--- a/data.xlsx
+++ b/data.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\aind\AIND-Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chris/Development/aind/AIND-Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27315" windowHeight="15360" tabRatio="500"/>
+    <workbookView xWindow="900" yWindow="440" windowWidth="26420" windowHeight="14920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="36">
   <si>
     <t>Load(C1, P1, SFO)</t>
   </si>
@@ -137,11 +137,27 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -164,8 +180,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -185,20 +211,20 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="11">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -210,6 +236,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -261,20 +297,2080 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-ZA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$5:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>180.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5960.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>414.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>224.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17023.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>224.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>224.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$5:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.111695125990081</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.10400808900885</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0285657420026836</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.185778595012379</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0753154440026264</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.86008233200118</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0104618920013308</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0776481110078748</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.084015601009014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.74742755899205</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$5:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>180.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5960.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>414.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>224.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17023.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>224.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>224.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$5:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.111695125990081</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.10400808900885</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0285657420026836</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.185778595012379</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0753154440026264</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.86008233200118</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0104618920013308</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0776481110078748</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.084015601009014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.74742755899205</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2114898160"/>
+        <c:axId val="2120024304"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2114898160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2120024304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2120024304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2114898160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-ZA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$5:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>180.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5960.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>414.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>224.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17023.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>224.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>224.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$5:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.111695125990081</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.10400808900885</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0285657420026836</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.185778595012379</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0753154440026264</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.86008233200118</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0104618920013308</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0776481110078748</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.084015601009014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.74742755899205</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$F$15:$F$24</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>30509</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5602</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2054119</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44041</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8982</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44041</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44041</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$15:$H$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>78.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.806</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4830.81674987327</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>152.886391302485</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.2840110343202</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200.876632301178</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>183.718803324218</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2118091008"/>
+        <c:axId val="2122266512"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2118091008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2122266512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2122266512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2118091008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>793750</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:H34" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A4:H34"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Index" dataDxfId="7"/>
-    <tableColumn id="8" name="Problem" dataDxfId="2">
+    <tableColumn id="8" name="Problem" dataDxfId="6">
       <calculatedColumnFormula>MID(Table1[[#This Row],[Algorithm]],SEARCH("using",Table1[[#This Row],[Algorithm]])+6,100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Algorithm" dataDxfId="0"/>
-    <tableColumn id="3" name="Expansions" dataDxfId="1"/>
-    <tableColumn id="4" name="Goal Tests" dataDxfId="6"/>
-    <tableColumn id="5" name="New Nodes" dataDxfId="5"/>
-    <tableColumn id="6" name="Plan Length" dataDxfId="4"/>
-    <tableColumn id="7" name="Time Elapsed" dataDxfId="3"/>
+    <tableColumn id="2" name="Algorithm" dataDxfId="5"/>
+    <tableColumn id="3" name="Expansions" dataDxfId="4"/>
+    <tableColumn id="4" name="Goal Tests" dataDxfId="3"/>
+    <tableColumn id="5" name="New Nodes" dataDxfId="2"/>
+    <tableColumn id="6" name="Plan Length" dataDxfId="1"/>
+    <tableColumn id="7" name="Time Elapsed" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -545,20 +2641,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
@@ -693,7 +2789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -761,7 +2857,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -829,7 +2925,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -897,7 +2993,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -917,7 +3013,7 @@
         <v>84</v>
       </c>
       <c r="G7" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H7" s="4">
         <v>2.8565742002683601E-2</v>
@@ -965,7 +3061,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -1009,7 +3105,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -1053,7 +3149,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -1097,7 +3193,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -1129,7 +3225,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -1161,7 +3257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -1193,7 +3289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -1219,7 +3315,7 @@
         <v>2.74742755899205</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -1245,7 +3341,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -1255,14 +3351,14 @@
       <c r="C16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="3">
-        <v>32821</v>
-      </c>
-      <c r="E16" s="3">
-        <v>32821</v>
-      </c>
-      <c r="F16" s="3">
-        <v>293999</v>
+      <c r="D16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>16</v>
@@ -1271,7 +3367,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>13</v>
       </c>
@@ -1297,7 +3393,7 @@
         <v>20.806000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>14</v>
       </c>
@@ -1323,7 +3419,7 @@
         <v>4830.8167498732701</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>15</v>
       </c>
@@ -1349,7 +3445,7 @@
         <v>152.88639130248501</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>16</v>
       </c>
@@ -1375,7 +3471,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>17</v>
       </c>
@@ -1401,7 +3497,7 @@
         <v>36.284011034320201</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>18</v>
       </c>
@@ -1427,7 +3523,7 @@
         <v>200.87663230117801</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>19</v>
       </c>
@@ -1453,7 +3549,7 @@
         <v>183.71880332421799</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>20</v>
       </c>
@@ -1463,13 +3559,23 @@
       <c r="C24" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="4"/>
+      <c r="D24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>21</v>
       </c>
@@ -1495,7 +3601,7 @@
         <v>312.870357818098</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>22</v>
       </c>
@@ -1521,7 +3627,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>23</v>
       </c>
@@ -1547,7 +3653,7 @@
         <v>8.3170158031775898</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>24</v>
       </c>
@@ -1573,7 +3679,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>25</v>
       </c>
@@ -1599,7 +3705,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>26</v>
       </c>
@@ -1625,7 +3731,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>27</v>
       </c>
@@ -1651,7 +3757,7 @@
         <v>324.522964</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>28</v>
       </c>
@@ -1677,7 +3783,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>29</v>
       </c>
@@ -1703,7 +3809,7 @@
         <v>1947.64116545924</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>30</v>
       </c>
@@ -1732,8 +3838,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>